--- a/biology/Médecine/Centre_hospitalier_de_La_Rochelle/Centre_hospitalier_de_La_Rochelle.xlsx
+++ b/biology/Médecine/Centre_hospitalier_de_La_Rochelle/Centre_hospitalier_de_La_Rochelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier de Saintonge est un hôpital public situé à La Rochelle, dans le département français de la Charente-Maritime en région Nouvelle-Aquitaine. 
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôpital général, dit Hôpital Saint-Louis, est fondée en 1667 par l'intendant Charles Colbert du Terron pour accueillir les indigents et les enfants orphelins ou abandonnés. Implanté dans un premier temps sur le domaine du Plessis dans le faubourg Saint-Éloi, l'hôpital est transféré dans la Villeneuve à l'emplacement qu'il occupe encore à la suite de la révocation de l'édit de Nantes et la dévolution des biens du consistoire. Sa direction est confiée aux Filles de la Sagesse. 
 L'aile droite et d'autres bâtiments sont bâtis par les architectes entrepreneurs Henry David et François Maistre (1719), auxquels sont ajoutés des bâtiments s'organisant autour de deux cours de chaque côtés de la chapelle (1725), du passage couvert entre la chapelle et le pavillon est (1732) et des pavillons d'accès à la rue. 
@@ -547,7 +561,9 @@
           <t>Chapelle de l'hôpital Saint-Louis</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La chapelle Saint-Louis est construite en 1689. Ses plans pourrait être de l'ingénieur du roi François Ferry.
 Au milieu du XIXe siècle, la chapelle est restaurée. Le peintre Mongis est chargé de la décoration du chœur.
